--- a/input_data/admin_data/COL/gpinter_COL_2015.xlsx
+++ b/input_data/admin_data/COL/gpinter_COL_2015.xlsx
@@ -483,7 +483,7 @@
         <v>0.68000000000000005</v>
       </c>
       <c r="E2">
-        <v>7.4505805969238199e-09</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0.999999999999999</v>
@@ -510,7 +510,7 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="E3">
-        <v>2.9802322387695299e-08</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="F3">
         <v>0.999999999999999</v>
@@ -537,7 +537,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="E4">
-        <v>1.11758708953857e-07</v>
+        <v>0.029999999329447746</v>
       </c>
       <c r="F4">
         <v>0.999999999999999</v>
@@ -564,7 +564,7 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="E5">
-        <v>4.8428773880004798e-07</v>
+        <v>0.039999999105930328</v>
       </c>
       <c r="F5">
         <v>0.999999999999999</v>
@@ -591,7 +591,7 @@
         <v>0.71999999999999997</v>
       </c>
       <c r="E6">
-        <v>2.0489096641540502e-06</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="F6">
         <v>0.999999999999995</v>
@@ -618,7 +618,7 @@
         <v>0.72999999999999998</v>
       </c>
       <c r="E7">
-        <v>8.4638595581054603e-06</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="F7">
         <v>0.99999999999998501</v>
@@ -645,7 +645,7 @@
         <v>0.73999999999999999</v>
       </c>
       <c r="E8">
-        <v>3.4257769584655802e-05</v>
+        <v>0.070000000298023224</v>
       </c>
       <c r="F8">
         <v>0.99999999999993905</v>
@@ -672,7 +672,7 @@
         <v>0.75</v>
       </c>
       <c r="E9">
-        <v>0.000136055052280426</v>
+        <v>0.079999998211860657</v>
       </c>
       <c r="F9">
         <v>0.99999999999975397</v>
@@ -699,7 +699,7 @@
         <v>0.76000000000000001</v>
       </c>
       <c r="E10">
-        <v>0.00053060054779052799</v>
+        <v>0.090000003576278687</v>
       </c>
       <c r="F10">
         <v>0.999999999999031</v>
@@ -726,7 +726,7 @@
         <v>0.77000000000000002</v>
       </c>
       <c r="E11">
-        <v>0.0020328313112258898</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="F11">
         <v>0.99999999999623801</v>
@@ -753,7 +753,7 @@
         <v>0.78000000000000003</v>
       </c>
       <c r="E12">
-        <v>0.0076542794704437403</v>
+        <v>0.10999999940395355</v>
       </c>
       <c r="F12">
         <v>0.99999999998565303</v>
@@ -780,7 +780,7 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="E13">
-        <v>0.0283382013440132</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="F13">
         <v>0.99999999994620703</v>
@@ -807,7 +807,7 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="E14">
-        <v>0.103202365338802</v>
+        <v>0.12999999523162842</v>
       </c>
       <c r="F14">
         <v>0.99999999980161702</v>
@@ -834,7 +834,7 @@
         <v>0.81000000000000005</v>
       </c>
       <c r="E15">
-        <v>0.36985711008310301</v>
+        <v>0.14000000059604645</v>
       </c>
       <c r="F15">
         <v>0.99999999928015004</v>
